--- a/CHANTIERS_ITB77/a/a.xlsx
+++ b/CHANTIERS_ITB77/a/a.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Données" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Previsionnel" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Beton" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,4 +730,545 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fournisseur</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Designation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type de Beton</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Volume (m3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Unibeton</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gros Beton</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gros Beton</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C 25/30 CP3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C 30/37 CP3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gros Beton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C 25/30</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>longrine</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>longrine</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C 25/30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>seuilles</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>longrine</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C 25/30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Semelles</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>longrines</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C 25/30</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>semelle</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>longrines</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>semelles</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Dalles</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CHANTIERS_ITB77/a/a.xlsx
+++ b/CHANTIERS_ITB77/a/a.xlsx
@@ -520,7 +520,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pieux / Micropieu</t>
+          <t>Dalle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -544,13 +544,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Semelle</t>
+          <t>Longrine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,7 +565,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Longrine</t>
+          <t>Pieux / Micropieu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Voile</t>
+          <t>Poteau</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Poteau</t>
+          <t>Poutre</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Poutre</t>
+          <t>Semelle</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dalle</t>
+          <t>Voile</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Voile</t>
+          <t>Acrotère</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -655,7 +655,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Poteau</t>
+          <t>Dalle</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Poutre</t>
+          <t>Poteau</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dalle</t>
+          <t>Poutre</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Acrotère</t>
+          <t>Voile</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">

--- a/CHANTIERS_ITB77/a/a.xlsx
+++ b/CHANTIERS_ITB77/a/a.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,6 +725,21 @@
       </c>
       <c r="C15" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CHANTIERS_ITB77/a/a.xlsx
+++ b/CHANTIERS_ITB77/a/a.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,21 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gros Beton</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>30</v>
       </c>
     </row>

--- a/CHANTIERS_ITB77/a/a.xlsx
+++ b/CHANTIERS_ITB77/a/a.xlsx
@@ -544,13 +544,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Longrine</t>
+          <t>Gros Beton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pieux / Micropieu</t>
+          <t>Gros Béton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Poteau</t>
+          <t>Longrine</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Poutre</t>
+          <t>Pieux / Micropieu</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Semelle</t>
+          <t>Poteau</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Voile</t>
+          <t>Poutre</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,43 +634,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acrotère</t>
+          <t>Semelle</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SUPER</t>
+          <t>INFRA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dalle</t>
+          <t>Voile</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SUPER</t>
+          <t>INFRA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Poteau</t>
+          <t>Acrotère</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Poutre</t>
+          <t>Dalle</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Voile</t>
+          <t>Poteau</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -715,7 +715,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Édicule</t>
+          <t>Poutre</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -730,31 +730,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gros Béton</t>
+          <t>Voile</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INFRA</t>
+          <t>SUPER</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gros Beton</t>
+          <t>Édicule</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INFRA</t>
+          <t>SUPER</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CHANTIERS_ITB77/a/a.xlsx
+++ b/CHANTIERS_ITB77/a/a.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Feuil1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Previsionnel" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Beton" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Etude_Beton" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +517,11 @@
           <t>Prevu (m3)</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>_key</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -531,6 +537,11 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Dalle_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -546,6 +557,11 @@
       <c r="C3" t="n">
         <v>300</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fondation_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -561,6 +577,11 @@
       <c r="C4" t="n">
         <v>30</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gros Beton_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,6 +597,11 @@
       <c r="C5" t="n">
         <v>30</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gros Béton_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -591,6 +617,11 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Longrine_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -606,6 +637,11 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Pieux / Micropieu_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -621,6 +657,11 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Poteau_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -636,6 +677,11 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Poutre_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -651,6 +697,11 @@
       <c r="C10" t="n">
         <v>20</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Semelle_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -666,6 +717,11 @@
       <c r="C11" t="n">
         <v>60</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Voile_INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -681,6 +737,11 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acrotère_SUPER</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -696,6 +757,11 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dalle_SUPER</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -711,6 +777,11 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Poteau_SUPER</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -726,6 +797,11 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Poutre_SUPER</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -741,6 +817,11 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Voile_SUPER</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -755,6 +836,11 @@
       </c>
       <c r="C17" t="n">
         <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Édicule_SUPER</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1301,4 +1387,280 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Designation</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Etude (m3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dalle</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gros Beton</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Longrine</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pieux / Micropieu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Poteau</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Poutre</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Semelle</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Voile</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Acrotère</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dalle</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Poteau</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Poutre</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Voile</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Édicule</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CHANTIERS_ITB77/a/a.xlsx
+++ b/CHANTIERS_ITB77/a/a.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,11 +517,6 @@
           <t>Prevu (m3)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_key</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -537,11 +532,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Dalle_INFRA</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -555,12 +545,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fondation_INFRA</t>
-        </is>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -577,11 +562,6 @@
       <c r="C4" t="n">
         <v>30</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Gros Beton_INFRA</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -597,11 +577,6 @@
       <c r="C5" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Gros Béton_INFRA</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -617,11 +592,6 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Longrine_INFRA</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -637,11 +607,6 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Pieux / Micropieu_INFRA</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -657,11 +622,6 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Poteau_INFRA</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -677,11 +637,6 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Poutre_INFRA</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -697,11 +652,6 @@
       <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Semelle_INFRA</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -717,11 +667,6 @@
       <c r="C11" t="n">
         <v>60</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Voile_INFRA</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -737,11 +682,6 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Acrotère_SUPER</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -757,11 +697,6 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dalle_SUPER</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -777,11 +712,6 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Poteau_SUPER</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -797,11 +727,6 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Poutre_SUPER</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -817,11 +742,6 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Voile_SUPER</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -836,11 +756,6 @@
       </c>
       <c r="C17" t="n">
         <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Édicule_SUPER</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/CHANTIERS_ITB77/a/a.xlsx
+++ b/CHANTIERS_ITB77/a/a.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,6 +755,66 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Plancher Haut</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Plancher Haut</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Balcons</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/CHANTIERS_ITB77/a/a.xlsx
+++ b/CHANTIERS_ITB77/a/a.xlsx
@@ -829,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,6 +1357,546 @@
       </c>
       <c r="D26" t="n">
         <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>C25/30 CPJ</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C25/30 CPJ</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>C30/37/CPJ</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>C30/37</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>C30/37</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>C25/30</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>C30/37</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>longrine</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>C30/37</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>longrine</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>C25/30</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>semelles</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>C30/37</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>longrine</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>C25/30</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>semelles</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C30/37</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>longrines</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>C25/30</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>semelles</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>C30/37</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>longrines</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Gros Béton</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>C30/37</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>semelles</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UniBeton</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>C30/37</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Dalles</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
